--- a/_site/downloads/structures_page/Elemental_ions.xlsx
+++ b/_site/downloads/structures_page/Elemental_ions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bf/Documents/blogs_all/Ribocentre-switch.github.io/downloads/structures_page/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bf/Documents/1doctor/riboswitch_database/other_page_excel/Structure_page/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E96B23-0336-9449-B916-A654CF83022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E26AA65-1EA6-604C-8510-F489B0B41239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="680" windowWidth="28960" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22760" yWindow="9180" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elemental_ions" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
   <si>
     <t>Riboswitch_name</t>
   </si>
@@ -226,6 +226,9 @@
     <t>Crystal structure of the NiCo transition-metal riboswitch bound to cobalt</t>
   </si>
   <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Linker</t>
   </si>
   <si>
@@ -268,6 +271,12 @@
     <t>https://pubmed.ncbi.nlm.nih.gov/28719589/</t>
   </si>
   <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Mg&lt;sup&gt;2+&lt;/sup&gt;</t>
+  </si>
+  <si>
     <t>Cell</t>
   </si>
   <si>
@@ -277,6 +286,12 @@
     <t>https://pubmed.ncbi.nlm.nih.gov/21315082/</t>
   </si>
   <si>
+    <t>Manganese</t>
+  </si>
+  <si>
+    <t>Mn&lt;sup&gt;2+&lt;/sup&gt;</t>
+  </si>
+  <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/25794619/</t>
   </si>
   <si>
@@ -290,19 +305,13 @@
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/25794617/</t>
-  </si>
-  <si>
-    <t>Mg2+</t>
-  </si>
-  <si>
-    <t>Mn2+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +342,11 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -394,11 +408,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -411,6 +425,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,7 +458,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -760,675 +780,730 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="11" style="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="11" style="1"/>
-    <col min="8" max="8" width="11" style="3"/>
-    <col min="9" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="10" width="23.6640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="44.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11" style="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="11" style="1"/>
+    <col min="9" max="9" width="11" style="3"/>
+    <col min="10" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="23.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="44.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="8" t="s">
+      <c r="L1" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="7">
+      <c r="D2" s="8">
         <v>52</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J2" s="8">
         <v>2012</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8">
+        <v>52</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2012</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8">
+        <v>52</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2012</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="8">
+        <v>52</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2012</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8">
+        <v>52</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2012</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="8">
+        <v>47</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8">
+        <v>2017</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="8">
+        <v>161</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="8">
+        <v>2007</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="8">
+        <v>161</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="8">
+        <v>2011</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="8">
+        <v>32</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="8">
+        <v>100</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="H11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="8">
+        <v>2015</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="8">
+        <v>100</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2015</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="8">
+        <v>107</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="8">
+        <v>2015</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="8">
+        <v>101</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2018</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="7">
-        <v>52</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="L14" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="8">
+        <v>101</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2012</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="I15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2018</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="7">
-        <v>52</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="L15" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="8">
+        <v>101</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2012</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="16" t="s">
+      <c r="I16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2018</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="7">
-        <v>52</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="L16" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="8">
+        <v>99</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="7">
-        <v>2012</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="7">
-        <v>52</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="J17" s="8">
+        <v>2019</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="8">
+        <v>94</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2012</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="7">
-        <v>47</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2017</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="7">
-        <v>161</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="I18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="8">
+        <v>2015</v>
+      </c>
+      <c r="K18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2007</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="7">
-        <v>161</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2011</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="7">
-        <v>32</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="7">
-        <v>100</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2015</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="7">
-        <v>100</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2015</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="7">
-        <v>107</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2015</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="7">
-        <v>101</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2018</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="7">
-        <v>101</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="7">
-        <v>2018</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="7">
-        <v>101</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2018</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="7">
-        <v>99</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2019</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="L18" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2015</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B18">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C18">
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="K7" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="K8" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="K9" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="K11" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="K14" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="K17" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="K18" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="L7" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="L8" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="L9" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="L11" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="L14" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="L17" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="L18" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="H3:H18" numberStoredAsText="1"/>
+    <ignoredError sqref="I3:I18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/_site/downloads/structures_page/Elemental_ions.xlsx
+++ b/_site/downloads/structures_page/Elemental_ions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bf/Documents/1doctor/riboswitch_database/other_page_excel/Structure_page/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bf/Documents/blogs_all/Ribocentre-switch.github.io/downloads/structures_page/未命名文件夹/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E26AA65-1EA6-604C-8510-F489B0B41239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B096C7-5376-F24F-A774-76469DB28FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22760" yWindow="9180" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33080" yWindow="6960" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elemental_ions" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>Riboswitch_name</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Crystal structure of the NiCo transition-metal riboswitch bound to cobalt</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Linker</t>
   </si>
   <si>
@@ -271,12 +268,6 @@
     <t>https://pubmed.ncbi.nlm.nih.gov/28719589/</t>
   </si>
   <si>
-    <t>Magnesium</t>
-  </si>
-  <si>
-    <t>Mg&lt;sup&gt;2+&lt;/sup&gt;</t>
-  </si>
-  <si>
     <t>Cell</t>
   </si>
   <si>
@@ -286,12 +277,6 @@
     <t>https://pubmed.ncbi.nlm.nih.gov/21315082/</t>
   </si>
   <si>
-    <t>Manganese</t>
-  </si>
-  <si>
-    <t>Mn&lt;sup&gt;2+&lt;/sup&gt;</t>
-  </si>
-  <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/25794619/</t>
   </si>
   <si>
@@ -305,13 +290,19 @@
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/25794617/</t>
+  </si>
+  <si>
+    <t>Mg2+</t>
+  </si>
+  <si>
+    <t>Mn2+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,11 +333,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -408,11 +394,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -425,9 +411,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,10 +441,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -781,729 +761,674 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11" style="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11" style="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="11" style="1"/>
-    <col min="9" max="9" width="11" style="3"/>
-    <col min="10" max="10" width="10.83203125" style="2"/>
-    <col min="11" max="11" width="23.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="44.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="11" style="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="11" style="1"/>
+    <col min="8" max="8" width="11" style="3"/>
+    <col min="9" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="23.6640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="44.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7">
+        <v>52</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="17" t="s">
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2012</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7">
+        <v>52</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2012</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="B4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7">
         <v>52</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="D4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2012</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="K4" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7">
+        <v>52</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="8">
+      <c r="H5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="7">
         <v>2012</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="J5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7">
+        <v>52</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="G6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2012</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7">
+        <v>47</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="8">
+    <row r="8" spans="1:11">
+      <c r="A8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7">
+        <v>161</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2007</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="7">
+        <v>161</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2011</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="7">
+        <v>32</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7">
+        <v>100</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2015</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="7">
+        <v>100</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="I12" s="7">
+        <v>2015</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7">
+        <v>107</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="8">
-        <v>2012</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="H13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2015</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="7">
+        <v>101</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="8">
-        <v>52</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="8">
-        <v>2012</v>
-      </c>
-      <c r="K4" s="13" t="s">
+      <c r="H14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="7">
+        <v>101</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="8">
-        <v>52</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="H15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="7">
+        <v>101</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="7">
+        <v>99</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="8">
-        <v>2012</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="8">
-        <v>52</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="I17" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="7">
+        <v>94</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="8">
-        <v>2012</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="8">
-        <v>47</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="8">
-        <v>2017</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="H18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2015</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="8">
-        <v>161</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="8">
-        <v>2007</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="8">
-        <v>161</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="8">
-        <v>2011</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="8">
-        <v>32</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="K18" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="8">
-        <v>100</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="8">
-        <v>2015</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="8">
-        <v>100</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="8">
-        <v>2015</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="8">
-        <v>107</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="8">
-        <v>2015</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="8">
-        <v>101</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="8">
-        <v>2018</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="8">
-        <v>101</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="8">
-        <v>2018</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="8">
-        <v>101</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="8">
-        <v>2018</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="8">
-        <v>99</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="8">
-        <v>2019</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="8">
-        <v>94</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="8">
-        <v>2015</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C18">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B18">
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="L4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="L7" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="L8" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="L9" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="L11" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="L14" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="L17" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="L18" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="K7" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="K8" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="K9" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="K11" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="K14" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="K17" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="K18" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="I3:I18" numberStoredAsText="1"/>
+    <ignoredError sqref="H3:H18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>